--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_9_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_9_13.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>105062.0999878636</v>
+        <v>103491.6971849316</v>
       </c>
     </row>
     <row r="7">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100.0000000001</v>
+        <v>133100</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48119.72719740959</v>
+        <v>48378.33248915087</v>
       </c>
       <c r="C4" t="n">
-        <v>48119.72719740959</v>
+        <v>48378.33248915087</v>
       </c>
       <c r="D4" t="n">
-        <v>48119.72719740959</v>
+        <v>48378.33248915087</v>
       </c>
       <c r="E4" t="n">
-        <v>28515.99717915458</v>
+        <v>28669.24800161989</v>
       </c>
       <c r="F4" t="n">
-        <v>28515.99717915458</v>
+        <v>28669.24800161989</v>
       </c>
       <c r="G4" t="n">
-        <v>28515.99717915458</v>
+        <v>28669.24800161989</v>
       </c>
       <c r="H4" t="n">
-        <v>28515.99717915458</v>
+        <v>28669.24800161989</v>
       </c>
       <c r="I4" t="n">
-        <v>28515.99717915458</v>
+        <v>28669.24800161989</v>
       </c>
       <c r="J4" t="n">
-        <v>28515.99717915458</v>
+        <v>28669.24800161989</v>
       </c>
       <c r="K4" t="n">
-        <v>28515.99717915458</v>
+        <v>28669.24800161989</v>
       </c>
       <c r="L4" t="n">
-        <v>28515.99717915458</v>
+        <v>28669.24800161989</v>
       </c>
       <c r="M4" t="n">
-        <v>28515.99717915458</v>
+        <v>28669.24800161989</v>
       </c>
       <c r="N4" t="n">
-        <v>28515.99717915458</v>
+        <v>28669.24800161989</v>
       </c>
       <c r="O4" t="n">
-        <v>28515.99717915458</v>
+        <v>28669.24800161989</v>
       </c>
       <c r="P4" t="n">
-        <v>28515.99717915458</v>
+        <v>28669.24800161989</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-11867.51360196943</v>
+        <v>-12126.1188937107</v>
       </c>
       <c r="C6" t="n">
-        <v>-11867.51360196943</v>
+        <v>-12126.1188937107</v>
       </c>
       <c r="D6" t="n">
-        <v>-11867.51360196943</v>
+        <v>-12126.1188937107</v>
       </c>
       <c r="E6" t="n">
-        <v>-90919.25298675163</v>
+        <v>-91072.50380921688</v>
       </c>
       <c r="F6" t="n">
-        <v>42180.74701324842</v>
+        <v>42027.49619078312</v>
       </c>
       <c r="G6" t="n">
-        <v>42180.74701324842</v>
+        <v>42027.49619078312</v>
       </c>
       <c r="H6" t="n">
-        <v>42180.74701324842</v>
+        <v>42027.49619078312</v>
       </c>
       <c r="I6" t="n">
-        <v>42180.74701324842</v>
+        <v>42027.49619078312</v>
       </c>
       <c r="J6" t="n">
-        <v>42180.74701324842</v>
+        <v>42027.49619078312</v>
       </c>
       <c r="K6" t="n">
-        <v>42180.74701324842</v>
+        <v>42027.49619078312</v>
       </c>
       <c r="L6" t="n">
-        <v>42180.74701324842</v>
+        <v>42027.49619078312</v>
       </c>
       <c r="M6" t="n">
-        <v>42180.74701324842</v>
+        <v>42027.49619078312</v>
       </c>
       <c r="N6" t="n">
-        <v>42180.74701324842</v>
+        <v>42027.49619078312</v>
       </c>
       <c r="O6" t="n">
-        <v>42180.74701324842</v>
+        <v>42027.49619078312</v>
       </c>
       <c r="P6" t="n">
-        <v>42180.74701324842</v>
+        <v>42027.49619078312</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_9_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_9_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>103491.6971849316</v>
+        <v>117218.0553223498</v>
       </c>
     </row>
     <row r="7">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26418,43 +26420,43 @@
         <v>48378.33248915087</v>
       </c>
       <c r="C4" t="n">
-        <v>48378.33248915087</v>
+        <v>48378.33248915088</v>
       </c>
       <c r="D4" t="n">
         <v>48378.33248915087</v>
       </c>
       <c r="E4" t="n">
-        <v>28669.24800161989</v>
+        <v>28669.24800161988</v>
       </c>
       <c r="F4" t="n">
         <v>28669.24800161989</v>
       </c>
       <c r="G4" t="n">
-        <v>28669.24800161989</v>
+        <v>28669.24800161988</v>
       </c>
       <c r="H4" t="n">
         <v>28669.24800161989</v>
       </c>
       <c r="I4" t="n">
-        <v>28669.24800161989</v>
+        <v>28669.24800161988</v>
       </c>
       <c r="J4" t="n">
         <v>28669.24800161989</v>
       </c>
       <c r="K4" t="n">
-        <v>28669.24800161989</v>
+        <v>28669.24800161988</v>
       </c>
       <c r="L4" t="n">
         <v>28669.24800161989</v>
       </c>
       <c r="M4" t="n">
-        <v>28669.24800161989</v>
+        <v>28669.24800161988</v>
       </c>
       <c r="N4" t="n">
         <v>28669.24800161989</v>
       </c>
       <c r="O4" t="n">
-        <v>28669.24800161989</v>
+        <v>28669.24800161988</v>
       </c>
       <c r="P4" t="n">
         <v>28669.24800161989</v>
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12126.1188937107</v>
+        <v>-12126.11889371071</v>
       </c>
       <c r="C6" t="n">
-        <v>-12126.1188937107</v>
+        <v>-12126.11889371071</v>
       </c>
       <c r="D6" t="n">
-        <v>-12126.1188937107</v>
+        <v>-12126.11889371071</v>
       </c>
       <c r="E6" t="n">
-        <v>-91072.50380921688</v>
+        <v>-91072.50380921693</v>
       </c>
       <c r="F6" t="n">
         <v>42027.49619078312</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_9_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_9_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>117218.0553223498</v>
+        <v>-7891.843475126832</v>
       </c>
     </row>
     <row r="7">
@@ -26429,37 +26429,37 @@
         <v>28669.24800161988</v>
       </c>
       <c r="F4" t="n">
+        <v>28669.24800161988</v>
+      </c>
+      <c r="G4" t="n">
         <v>28669.24800161989</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>28669.24800161988</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>28669.24800161989</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>28669.24800161988</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>28669.24800161989</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>28669.24800161988</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>28669.24800161989</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>28669.24800161988</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>28669.24800161989</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>28669.24800161988</v>
-      </c>
-      <c r="P4" t="n">
-        <v>28669.24800161989</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12126.11889371071</v>
+        <v>-27276.79286374547</v>
       </c>
       <c r="C6" t="n">
-        <v>-12126.11889371071</v>
+        <v>-27276.79286374548</v>
       </c>
       <c r="D6" t="n">
-        <v>-12126.11889371071</v>
+        <v>-27276.79286374547</v>
       </c>
       <c r="E6" t="n">
-        <v>-91072.50380921693</v>
+        <v>-105882.5206483308</v>
       </c>
       <c r="F6" t="n">
-        <v>42027.49619078312</v>
+        <v>27217.47935166922</v>
       </c>
       <c r="G6" t="n">
-        <v>42027.49619078312</v>
+        <v>27217.47935166922</v>
       </c>
       <c r="H6" t="n">
-        <v>42027.49619078312</v>
+        <v>27217.47935166922</v>
       </c>
       <c r="I6" t="n">
-        <v>42027.49619078312</v>
+        <v>27217.47935166922</v>
       </c>
       <c r="J6" t="n">
-        <v>42027.49619078312</v>
+        <v>27217.47935166922</v>
       </c>
       <c r="K6" t="n">
-        <v>42027.49619078312</v>
+        <v>27217.47935166922</v>
       </c>
       <c r="L6" t="n">
-        <v>42027.49619078312</v>
+        <v>27217.47935166922</v>
       </c>
       <c r="M6" t="n">
-        <v>42027.49619078312</v>
+        <v>27217.47935166922</v>
       </c>
       <c r="N6" t="n">
-        <v>42027.49619078312</v>
+        <v>27217.47935166922</v>
       </c>
       <c r="O6" t="n">
-        <v>42027.49619078312</v>
+        <v>27217.47935166922</v>
       </c>
       <c r="P6" t="n">
-        <v>42027.49619078312</v>
+        <v>27217.47935166922</v>
       </c>
     </row>
   </sheetData>
